--- a/Results/Categorization/lda2vec-partial-ner-w2v-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-w2v-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1824">
   <si>
     <t>id</t>
   </si>
@@ -4039,49 +4039,49 @@
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
+    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
@@ -4129,102 +4129,102 @@
     <t>AMBIENCE|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
     <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
+    <t>AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
@@ -4255,7 +4255,7 @@
     <t>FOOD|SERVICE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|FOOD|SERVICE|FOOD</t>
@@ -4279,7 +4279,7 @@
     <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|FOOD|PRICES</t>
@@ -4288,61 +4288,55 @@
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE</t>
+    <t>PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|PRICES</t>
@@ -4354,6 +4348,9 @@
     <t>PRICES|PRICES|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
     <t>AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
@@ -4387,76 +4384,67 @@
     <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>PRICES||FOOD|PRICES</t>
+    <t>PRICES||PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|||SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE||FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|||SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE||FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|PRICES</t>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|PRICES|PRICES</t>
@@ -4489,18 +4477,12 @@
     <t>service|price</t>
   </si>
   <si>
-    <t>service|decor|always|thing|excellent</t>
+    <t>service|decor|always|excellent</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>food|thing</t>
-  </si>
-  <si>
-    <t>thing|special</t>
-  </si>
-  <si>
     <t>never|though</t>
   </si>
   <si>
@@ -4543,7 +4525,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6</t>
+    <t>food|fresh|$6!-</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4564,7 +4546,7 @@
     <t>ambience|would|best|nice</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|reasonable|food|great|great|great|price</t>
@@ -4630,7 +4612,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4642,6 +4624,9 @@
     <t>service|pizza|great</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>best|sushi</t>
   </si>
   <si>
@@ -4696,7 +4681,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00...just</t>
+    <t>overpriced|price|$8.00!-</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4792,13 +4777,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>service|good|restaurant|thing</t>
-  </si>
-  <si>
-    <t>delicious|thing</t>
+    <t>service|good|restaurant</t>
+  </si>
+  <si>
+    <t>delicious</t>
   </si>
   <si>
     <t>service|though|reasonable|price</t>
@@ -4807,7 +4789,7 @@
     <t>delicious|restaurant|food|fresh|fresh</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4831,16 +4813,16 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18</t>
+    <t>menu|food|$18!-</t>
   </si>
   <si>
     <t>service|food|great|price</t>
   </si>
   <si>
-    <t>atmosphere|thing|wait</t>
-  </si>
-  <si>
-    <t>dish|reasonable|price|$3-6</t>
+    <t>atmosphere|wait</t>
+  </si>
+  <si>
+    <t>dish|reasonable|price|$3-6!-</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4852,9 +4834,6 @@
     <t>dish|fresh</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
     <t>place|delicious|food|staff</t>
   </si>
   <si>
@@ -4873,7 +4852,7 @@
     <t>delicious|though</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>bombay|beer</t>
   </si>
   <si>
     <t>place|nice</t>
@@ -4897,7 +4876,7 @@
     <t>ambience|like</t>
   </si>
   <si>
-    <t>dish|menu|thing</t>
+    <t>dish|menu</t>
   </si>
   <si>
     <t>place|good|meal</t>
@@ -4915,7 +4894,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70+</t>
+    <t>wine|$70!-|$30!-</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -4942,7 +4921,7 @@
     <t>service|place</t>
   </si>
   <si>
-    <t>service|atmosphere|restaurant|food|thing|great|great</t>
+    <t>service|atmosphere|restaurant|food|great|great</t>
   </si>
   <si>
     <t>service|menu|staff|meal</t>
@@ -4975,7 +4954,7 @@
     <t>service|ambience|nice|great</t>
   </si>
   <si>
-    <t>atmosphere|sushi|feel|like|thing|special</t>
+    <t>atmosphere|sushi|feel|like|special</t>
   </si>
   <si>
     <t>well|staff</t>
@@ -4996,7 +4975,7 @@
     <t>service|always|great</t>
   </si>
   <si>
-    <t>rude|thing|wait</t>
+    <t>rude|wait</t>
   </si>
   <si>
     <t>make|service|place|worth|feel|like|food|price|price</t>
@@ -5017,7 +4996,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|thing|$7)</t>
+    <t>like|$7!-</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -5038,7 +5017,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24</t>
+    <t>good|though|price|$24!-</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -5047,7 +5026,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10.</t>
+    <t>great|$10!-</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -5062,15 +5041,12 @@
     <t>make|feel|like|wait|staff</t>
   </si>
   <si>
-    <t>service|thing|thing|wait</t>
+    <t>service|wait</t>
   </si>
   <si>
     <t>good|wait|wait</t>
   </si>
   <si>
-    <t>dinner|thing|thing</t>
-  </si>
-  <si>
     <t>place|would|good|great|staff</t>
   </si>
   <si>
@@ -5080,7 +5056,7 @@
     <t>service|restaurant|back</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
+    <t>gentleman|manager|table|smile|order</t>
   </si>
   <si>
     <t>food|great|price</t>
@@ -5098,7 +5074,7 @@
     <t>worth|well|back</t>
   </si>
   <si>
-    <t>place|special|money.</t>
+    <t>place|special</t>
   </si>
   <si>
     <t>service|excellent</t>
@@ -5113,9 +5089,6 @@
     <t>pizza|price</t>
   </si>
   <si>
-    <t>wait|money</t>
-  </si>
-  <si>
     <t>wait|staff</t>
   </si>
   <si>
@@ -5125,19 +5098,16 @@
     <t>place|great</t>
   </si>
   <si>
-    <t>service|thing</t>
-  </si>
-  <si>
     <t>place|worth|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great</t>
+    <t>like|great|100 dollar!-</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5149,13 +5119,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|she's-way-cuter-than-me-that-b@#$*</t>
+    <t>wait|staff|$*!-</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50</t>
+    <t>great|great|$8.50!-</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5206,19 +5176,13 @@
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>thing|wait</t>
-  </si>
-  <si>
     <t>place|decor|food|great|great|price</t>
   </si>
   <si>
-    <t>place|food|money.</t>
-  </si>
-  <si>
     <t>good|reasonable|food|wine|great|price</t>
   </si>
   <si>
-    <t>overpriced|good|thing|price</t>
+    <t>overpriced|good|price</t>
   </si>
   <si>
     <t>would|food|price</t>
@@ -5233,7 +5197,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>reasonable|food|great|price</t>
@@ -5242,7 +5206,7 @@
     <t>good|food|price</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|good|food|great|price</t>
@@ -5263,10 +5227,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15....</t>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15!-</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5275,7 +5239,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60</t>
+    <t>good|though|meal|$60!-</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5284,7 +5248,7 @@
     <t>place|dinner|great</t>
   </si>
   <si>
-    <t>make|atmosphere|back|thing</t>
+    <t>make|atmosphere|back</t>
   </si>
   <si>
     <t>food|excellent|great|price</t>
@@ -5296,19 +5260,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00</t>
+    <t>dinner|$400.00!-</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11</t>
+    <t>plate|guacamole|$11!-</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5335,13 +5299,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10.</t>
-  </si>
-  <si>
-    <t>decor|thing</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500</t>
+    <t>service|dish|price|$10!-</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5353,19 +5314,16 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>back|money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|dinner|$55</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|dinner|$55!-</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5374,16 +5332,16 @@
     <t>would|dinner|meal</t>
   </si>
   <si>
-    <t>never|feel|restaurant|money.</t>
+    <t>never|feel|restaurant</t>
   </si>
   <si>
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25),</t>
-  </si>
-  <si>
-    <t>place|food|thing|$</t>
+    <t>place|would|feel|restaurant|price|$25!-</t>
+  </si>
+  <si>
+    <t>place|food|$!-</t>
   </si>
   <si>
     <t>worth</t>
@@ -5392,19 +5350,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
+    <t>stone|bowl|$2!-</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29</t>
-  </si>
-  <si>
-    <t>good|reasonable|thing|great|price</t>
-  </si>
-  <si>
-    <t>service|rude|well|$500</t>
+    <t>menu|$29!-</t>
+  </si>
+  <si>
+    <t>good|reasonable|great|price</t>
+  </si>
+  <si>
+    <t>service|rude|well|$500!-</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5413,13 +5371,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24</t>
+    <t>never|restaurant|$24!-</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60</t>
+    <t>service|$60!-</t>
   </si>
   <si>
     <t>place|price</t>
@@ -5934,10 +5892,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="H2" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5963,7 +5921,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5986,10 +5944,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="H4" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6012,10 +5970,10 @@
         <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="H5" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6038,10 +5996,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="H6" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6064,10 +6022,10 @@
         <v>1276</v>
       </c>
       <c r="G7" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H7" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6090,10 +6048,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H8" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6116,10 +6074,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H9" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6142,10 +6100,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H10" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6168,10 +6126,10 @@
         <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H11" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6191,13 +6149,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="s">
-        <v>1493</v>
+        <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6217,13 +6175,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
+        <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="H13" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6246,10 +6204,10 @@
         <v>1342</v>
       </c>
       <c r="G14" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="H14" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6269,13 +6227,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H15" t="s">
-        <v>1809</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6295,13 +6253,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H16" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6324,10 +6282,10 @@
         <v>1342</v>
       </c>
       <c r="G17" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="H17" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6347,13 +6305,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G18" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="H18" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6376,7 +6334,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6396,13 +6354,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G20" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H20" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6428,7 +6386,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6454,7 +6412,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6474,13 +6432,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G23" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="H23" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6503,10 +6461,10 @@
         <v>1342</v>
       </c>
       <c r="G24" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="H24" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6532,7 +6490,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6552,13 +6510,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G26" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="H26" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6581,10 +6539,10 @@
         <v>1339</v>
       </c>
       <c r="G27" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="H27" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6604,10 +6562,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="H28" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6627,13 +6585,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G29" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="H29" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6653,13 +6611,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G30" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="H30" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6679,13 +6637,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H31" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6705,13 +6663,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G32" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="H32" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6734,10 +6692,10 @@
         <v>1342</v>
       </c>
       <c r="G33" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="H33" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6757,13 +6715,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G34" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="H34" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6786,10 +6744,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="H35" t="s">
-        <v>1811</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6809,13 +6767,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G36" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="H36" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6838,10 +6796,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="H37" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6861,13 +6819,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G38" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="H38" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6890,10 +6848,10 @@
         <v>1354</v>
       </c>
       <c r="G39" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H39" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6916,10 +6874,10 @@
         <v>1355</v>
       </c>
       <c r="G40" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H40" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6942,10 +6900,10 @@
         <v>1356</v>
       </c>
       <c r="G41" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="H41" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6965,13 +6923,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G42" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H42" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6994,10 +6952,10 @@
         <v>1357</v>
       </c>
       <c r="G43" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="H43" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7023,7 +6981,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7049,7 +7007,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1812</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7069,13 +7027,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G46" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="H46" t="s">
-        <v>1813</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7101,7 +7059,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7124,10 +7082,10 @@
         <v>1358</v>
       </c>
       <c r="G48" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="H48" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7150,10 +7108,10 @@
         <v>1359</v>
       </c>
       <c r="G49" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H49" t="s">
-        <v>1814</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7173,13 +7131,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G50" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="H50" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7202,10 +7160,10 @@
         <v>1360</v>
       </c>
       <c r="G51" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H51" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7228,10 +7186,10 @@
         <v>1361</v>
       </c>
       <c r="G52" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="H52" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7254,10 +7212,10 @@
         <v>1362</v>
       </c>
       <c r="G53" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="H53" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7280,10 +7238,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="H54" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7306,10 +7264,10 @@
         <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="H55" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7332,10 +7290,10 @@
         <v>1364</v>
       </c>
       <c r="G56" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="H56" t="s">
-        <v>1816</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7358,10 +7316,10 @@
         <v>1365</v>
       </c>
       <c r="G57" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="H57" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7384,10 +7342,10 @@
         <v>1358</v>
       </c>
       <c r="G58" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="H58" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7410,10 +7368,10 @@
         <v>1366</v>
       </c>
       <c r="G59" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="H59" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7436,10 +7394,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H60" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7465,7 +7423,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7488,10 +7446,10 @@
         <v>1367</v>
       </c>
       <c r="G62" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="H62" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7514,10 +7472,10 @@
         <v>1368</v>
       </c>
       <c r="G63" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="H63" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7540,10 +7498,10 @@
         <v>1369</v>
       </c>
       <c r="G64" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="H64" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7563,13 +7521,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G65" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="H65" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7592,10 +7550,10 @@
         <v>1370</v>
       </c>
       <c r="G66" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="H66" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7618,10 +7576,10 @@
         <v>1342</v>
       </c>
       <c r="G67" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="H67" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7647,7 +7605,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7670,10 +7628,10 @@
         <v>1371</v>
       </c>
       <c r="G69" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="H69" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7696,10 +7654,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="H70" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7725,7 +7683,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7748,10 +7706,10 @@
         <v>1372</v>
       </c>
       <c r="G72" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="H72" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7774,10 +7732,10 @@
         <v>1373</v>
       </c>
       <c r="G73" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="H73" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7800,10 +7758,10 @@
         <v>1374</v>
       </c>
       <c r="G74" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="H74" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7829,7 +7787,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7849,13 +7807,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1362</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1536</v>
       </c>
       <c r="H76" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7875,13 +7833,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G77" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="H77" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7901,13 +7859,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G78" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="H78" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7930,10 +7888,10 @@
         <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="H79" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7956,10 +7914,10 @@
         <v>1375</v>
       </c>
       <c r="G80" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="H80" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7982,10 +7940,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="H81" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8008,10 +7966,10 @@
         <v>1376</v>
       </c>
       <c r="G82" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="H82" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8037,7 +7995,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8063,7 +8021,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8086,10 +8044,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="H85" t="s">
-        <v>1819</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8112,10 +8070,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="H86" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8138,10 +8096,10 @@
         <v>1342</v>
       </c>
       <c r="G87" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="H87" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8164,10 +8122,10 @@
         <v>1377</v>
       </c>
       <c r="G88" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="H88" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8190,10 +8148,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H89" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8219,7 +8177,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8242,10 +8200,10 @@
         <v>1378</v>
       </c>
       <c r="G91" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="H91" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8268,10 +8226,10 @@
         <v>1359</v>
       </c>
       <c r="G92" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="H92" t="s">
-        <v>1820</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8294,10 +8252,10 @@
         <v>1379</v>
       </c>
       <c r="G93" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="H93" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8320,10 +8278,10 @@
         <v>1380</v>
       </c>
       <c r="G94" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H94" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8346,10 +8304,10 @@
         <v>1381</v>
       </c>
       <c r="G95" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H95" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8372,10 +8330,10 @@
         <v>1294</v>
       </c>
       <c r="G96" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H96" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8398,10 +8356,10 @@
         <v>1276</v>
       </c>
       <c r="G97" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H97" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8424,10 +8382,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H98" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8450,10 +8408,10 @@
         <v>1382</v>
       </c>
       <c r="G99" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H99" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8476,10 +8434,10 @@
         <v>1383</v>
       </c>
       <c r="G100" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H100" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8502,10 +8460,10 @@
         <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H101" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8528,10 +8486,10 @@
         <v>1342</v>
       </c>
       <c r="G102" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H102" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8554,10 +8512,10 @@
         <v>1339</v>
       </c>
       <c r="G103" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H103" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8580,10 +8538,10 @@
         <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="H104" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8609,7 +8567,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8632,10 +8590,10 @@
         <v>1384</v>
       </c>
       <c r="G106" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="H106" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8658,10 +8616,10 @@
         <v>1372</v>
       </c>
       <c r="G107" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="H107" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8684,10 +8642,10 @@
         <v>1385</v>
       </c>
       <c r="G108" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="H108" t="s">
-        <v>1821</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8707,10 +8665,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H109" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8733,10 +8691,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="H110" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8759,10 +8717,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="H111" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8785,10 +8743,10 @@
         <v>1276</v>
       </c>
       <c r="G112" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H112" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8814,7 +8772,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8840,7 +8798,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8863,10 +8821,10 @@
         <v>1386</v>
       </c>
       <c r="G115" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="H115" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8889,10 +8847,10 @@
         <v>1387</v>
       </c>
       <c r="G116" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="H116" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8915,10 +8873,10 @@
         <v>1388</v>
       </c>
       <c r="G117" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="H117" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8941,10 +8899,10 @@
         <v>1389</v>
       </c>
       <c r="G118" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="H118" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8967,10 +8925,10 @@
         <v>1359</v>
       </c>
       <c r="G119" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="H119" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8996,7 +8954,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9022,7 +8980,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9048,7 +9006,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9074,7 +9032,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9097,10 +9055,10 @@
         <v>1390</v>
       </c>
       <c r="G124" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="H124" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9123,10 +9081,10 @@
         <v>1278</v>
       </c>
       <c r="G125" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="H125" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9152,7 +9110,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9175,10 +9133,10 @@
         <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H127" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9201,10 +9159,10 @@
         <v>1377</v>
       </c>
       <c r="G128" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="H128" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9227,10 +9185,10 @@
         <v>1391</v>
       </c>
       <c r="G129" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="H129" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9250,13 +9208,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G130" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="H130" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9279,10 +9237,10 @@
         <v>1339</v>
       </c>
       <c r="G131" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="H131" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9305,10 +9263,10 @@
         <v>1338</v>
       </c>
       <c r="G132" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="H132" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9331,10 +9289,10 @@
         <v>1392</v>
       </c>
       <c r="G133" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="H133" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9357,10 +9315,10 @@
         <v>1370</v>
       </c>
       <c r="G134" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="H134" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9386,7 +9344,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9406,13 +9364,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G136" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="H136" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9432,13 +9390,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G137" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="H137" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9461,10 +9419,10 @@
         <v>1342</v>
       </c>
       <c r="G138" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="H138" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9487,10 +9445,10 @@
         <v>1393</v>
       </c>
       <c r="G139" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="H139" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9510,13 +9468,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G140" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="H140" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9542,7 +9500,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9565,10 +9523,10 @@
         <v>1394</v>
       </c>
       <c r="G142" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="H142" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9591,10 +9549,10 @@
         <v>1377</v>
       </c>
       <c r="G143" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="H143" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9617,10 +9575,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="H144" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9646,7 +9604,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9669,10 +9627,10 @@
         <v>1381</v>
       </c>
       <c r="G146" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="H146" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9698,7 +9656,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9721,10 +9679,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="H148" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9743,14 +9701,8 @@
       <c r="E149" t="s">
         <v>1277</v>
       </c>
-      <c r="F149" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1592</v>
-      </c>
       <c r="H149" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9773,10 +9725,10 @@
         <v>1395</v>
       </c>
       <c r="G150" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="H150" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9802,7 +9754,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1823</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9822,13 +9774,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1339</v>
+        <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="H152" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9851,10 +9803,10 @@
         <v>1396</v>
       </c>
       <c r="G153" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="H153" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9877,10 +9829,10 @@
         <v>1397</v>
       </c>
       <c r="G154" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="H154" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9900,13 +9852,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="H155" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9929,10 +9881,10 @@
         <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="H156" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9955,10 +9907,10 @@
         <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H157" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9981,10 +9933,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H158" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10007,10 +9959,10 @@
         <v>1370</v>
       </c>
       <c r="G159" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="H159" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10033,10 +9985,10 @@
         <v>1398</v>
       </c>
       <c r="G160" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="H160" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10062,7 +10014,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10085,10 +10037,10 @@
         <v>1362</v>
       </c>
       <c r="G162" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="H162" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10114,7 +10066,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10137,10 +10089,10 @@
         <v>1338</v>
       </c>
       <c r="G164" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="H164" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10163,10 +10115,10 @@
         <v>1390</v>
       </c>
       <c r="G165" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="H165" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10186,13 +10138,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G166" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="H166" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10212,13 +10164,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G167" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="H167" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10238,13 +10190,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G168" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="H168" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10264,13 +10216,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G169" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="H169" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10290,13 +10242,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G170" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="H170" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10319,10 +10271,10 @@
         <v>1362</v>
       </c>
       <c r="G171" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="H171" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10345,10 +10297,10 @@
         <v>1285</v>
       </c>
       <c r="G172" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="H172" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10371,10 +10323,10 @@
         <v>1339</v>
       </c>
       <c r="G173" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="H173" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10397,10 +10349,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1612</v>
+        <v>1588</v>
       </c>
       <c r="H174" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10420,13 +10372,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G175" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="H175" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10449,10 +10401,10 @@
         <v>1294</v>
       </c>
       <c r="G176" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H176" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10472,13 +10424,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="G177" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="H177" t="s">
-        <v>1813</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10501,10 +10453,10 @@
         <v>1403</v>
       </c>
       <c r="G178" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="H178" t="s">
-        <v>1824</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10527,10 +10479,10 @@
         <v>1404</v>
       </c>
       <c r="G179" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="H179" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10553,10 +10505,10 @@
         <v>1405</v>
       </c>
       <c r="G180" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="H180" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10579,10 +10531,10 @@
         <v>1339</v>
       </c>
       <c r="G181" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="H181" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10608,7 +10560,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10631,10 +10583,10 @@
         <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="H183" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10654,13 +10606,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="H184" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10680,13 +10632,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G185" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H185" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10709,10 +10661,10 @@
         <v>1370</v>
       </c>
       <c r="G186" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="H186" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10735,10 +10687,10 @@
         <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="H187" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10764,7 +10716,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10784,13 +10736,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G189" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H189" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10816,7 +10768,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10839,10 +10791,10 @@
         <v>1370</v>
       </c>
       <c r="G191" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="H191" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10865,10 +10817,10 @@
         <v>1373</v>
       </c>
       <c r="G192" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="H192" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10891,10 +10843,10 @@
         <v>1406</v>
       </c>
       <c r="G193" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="H193" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10917,10 +10869,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="H194" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10946,7 +10898,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10969,10 +10921,10 @@
         <v>1370</v>
       </c>
       <c r="G196" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="H196" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10998,7 +10950,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11021,10 +10973,10 @@
         <v>1276</v>
       </c>
       <c r="G198" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H198" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11044,13 +10996,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="H199" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11073,10 +11025,10 @@
         <v>1407</v>
       </c>
       <c r="G200" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="H200" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11096,13 +11048,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G201" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H201" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11125,10 +11077,10 @@
         <v>1408</v>
       </c>
       <c r="G202" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="H202" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11148,13 +11100,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G203" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="H203" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11177,10 +11129,10 @@
         <v>1409</v>
       </c>
       <c r="G204" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="H204" t="s">
-        <v>1821</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11203,10 +11155,10 @@
         <v>1371</v>
       </c>
       <c r="G205" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="H205" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11229,10 +11181,10 @@
         <v>1410</v>
       </c>
       <c r="G206" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="H206" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11258,7 +11210,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11278,13 +11230,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G208" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="H208" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11310,7 +11262,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11333,10 +11285,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="H210" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11359,10 +11311,10 @@
         <v>1411</v>
       </c>
       <c r="G211" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="H211" t="s">
-        <v>1825</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11385,10 +11337,10 @@
         <v>1377</v>
       </c>
       <c r="G212" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="H212" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11411,10 +11363,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="H213" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11437,10 +11389,10 @@
         <v>1412</v>
       </c>
       <c r="G214" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="H214" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11460,13 +11412,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G215" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="H215" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11492,7 +11444,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11512,13 +11464,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G217" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="H217" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11541,10 +11493,10 @@
         <v>1413</v>
       </c>
       <c r="G218" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="H218" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11567,10 +11519,10 @@
         <v>1278</v>
       </c>
       <c r="G219" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="H219" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11593,10 +11545,10 @@
         <v>1414</v>
       </c>
       <c r="G220" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="H220" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11622,7 +11574,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11645,10 +11597,10 @@
         <v>1415</v>
       </c>
       <c r="G222" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="H222" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11671,10 +11623,10 @@
         <v>1416</v>
       </c>
       <c r="G223" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="H223" t="s">
-        <v>1826</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11697,10 +11649,10 @@
         <v>1417</v>
       </c>
       <c r="G224" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="H224" t="s">
-        <v>1827</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11726,7 +11678,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11752,7 +11704,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11778,7 +11730,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11801,10 +11753,10 @@
         <v>1362</v>
       </c>
       <c r="G228" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="H228" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11827,10 +11779,10 @@
         <v>1418</v>
       </c>
       <c r="G229" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="H229" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11853,10 +11805,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="H230" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11882,7 +11834,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11905,10 +11857,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="H232" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11931,10 +11883,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="H233" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11957,10 +11909,10 @@
         <v>1419</v>
       </c>
       <c r="G234" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="H234" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11983,10 +11935,10 @@
         <v>1420</v>
       </c>
       <c r="G235" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="H235" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12009,10 +11961,10 @@
         <v>1421</v>
       </c>
       <c r="G236" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="H236" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12035,10 +11987,10 @@
         <v>1368</v>
       </c>
       <c r="G237" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="H237" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12061,10 +12013,10 @@
         <v>1422</v>
       </c>
       <c r="G238" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="H238" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12087,10 +12039,10 @@
         <v>1339</v>
       </c>
       <c r="G239" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H239" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12110,13 +12062,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G240" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="H240" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12139,10 +12091,10 @@
         <v>1276</v>
       </c>
       <c r="G241" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H241" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12165,10 +12117,10 @@
         <v>1377</v>
       </c>
       <c r="G242" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="H242" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12191,10 +12143,10 @@
         <v>1423</v>
       </c>
       <c r="G243" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="H243" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12214,13 +12166,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1424</v>
+        <v>1401</v>
       </c>
       <c r="G244" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="H244" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12243,10 +12195,10 @@
         <v>1373</v>
       </c>
       <c r="G245" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="H245" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12272,7 +12224,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12292,13 +12244,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="G247" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="H247" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12324,7 +12276,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12344,13 +12296,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G249" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="H249" t="s">
-        <v>1809</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12370,13 +12322,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G250" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="H250" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12396,13 +12348,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G251" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="H251" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12422,13 +12374,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G252" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="H252" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12451,10 +12403,10 @@
         <v>1415</v>
       </c>
       <c r="G253" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="H253" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12480,7 +12432,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12503,10 +12455,10 @@
         <v>1377</v>
       </c>
       <c r="G255" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="H255" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12529,10 +12481,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="H256" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12555,10 +12507,10 @@
         <v>1342</v>
       </c>
       <c r="G257" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="H257" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12578,13 +12530,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1398</v>
+        <v>1419</v>
       </c>
       <c r="G258" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="H258" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12610,7 +12562,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12633,10 +12585,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="H260" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12656,13 +12608,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G261" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="H261" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12688,7 +12640,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12708,13 +12660,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G263" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="H263" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12734,13 +12686,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G264" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="H264" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12760,13 +12712,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G265" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="H265" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12786,13 +12738,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1433</v>
+        <v>1371</v>
       </c>
       <c r="G266" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="H266" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12812,13 +12764,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="G267" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="H267" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12838,13 +12790,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G268" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="H268" t="s">
-        <v>1814</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12867,10 +12819,10 @@
         <v>1377</v>
       </c>
       <c r="G269" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="H269" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12896,7 +12848,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12916,13 +12868,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G271" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="H271" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12945,10 +12897,10 @@
         <v>1419</v>
       </c>
       <c r="G272" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="H272" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12968,13 +12920,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G273" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="H273" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12994,13 +12946,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G274" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="H274" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13020,13 +12972,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="G275" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="H275" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13046,13 +12998,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G276" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="H276" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13075,10 +13027,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="H277" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13098,13 +13050,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="G278" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="H278" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13124,13 +13076,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G279" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="H279" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13150,13 +13102,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1348</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1684</v>
+        <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13179,7 +13131,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13199,13 +13151,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="G282" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="H282" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13231,7 +13183,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13251,13 +13203,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G284" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="H284" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13277,13 +13229,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1425</v>
+        <v>1439</v>
       </c>
       <c r="G285" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="H285" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13303,13 +13255,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G286" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="H286" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13329,13 +13281,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G287" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="H287" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13358,10 +13310,10 @@
         <v>1294</v>
       </c>
       <c r="G288" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H288" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13384,10 +13336,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="H289" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13407,13 +13359,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G290" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="H290" t="s">
-        <v>1814</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13433,13 +13385,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G291" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="H291" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13459,13 +13411,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G292" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="H292" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13485,13 +13437,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G293" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="H293" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13514,10 +13466,10 @@
         <v>1370</v>
       </c>
       <c r="G294" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="H294" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13543,7 +13495,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13566,10 +13518,10 @@
         <v>1377</v>
       </c>
       <c r="G296" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="H296" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13592,10 +13544,10 @@
         <v>1276</v>
       </c>
       <c r="G297" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H297" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13615,13 +13567,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1446</v>
+        <v>1370</v>
       </c>
       <c r="G298" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="H298" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13644,10 +13596,10 @@
         <v>1415</v>
       </c>
       <c r="G299" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="H299" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13667,13 +13619,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1424</v>
+        <v>1401</v>
       </c>
       <c r="G300" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="H300" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13696,10 +13648,10 @@
         <v>1380</v>
       </c>
       <c r="G301" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="H301" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13719,13 +13671,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G302" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="H302" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13745,13 +13697,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="G303" t="s">
-        <v>1699</v>
+        <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13777,7 +13729,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13803,7 +13755,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13826,10 +13778,10 @@
         <v>1415</v>
       </c>
       <c r="G306" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="H306" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13855,7 +13807,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13878,10 +13830,10 @@
         <v>1390</v>
       </c>
       <c r="G308" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="H308" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13907,7 +13859,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13933,7 +13885,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13959,7 +13911,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13982,10 +13934,10 @@
         <v>1370</v>
       </c>
       <c r="G312" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="H312" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14005,13 +13957,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1377</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1703</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14037,7 +13989,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14060,10 +14012,10 @@
         <v>1376</v>
       </c>
       <c r="G315" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="H315" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14083,13 +14035,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1352</v>
+        <v>1444</v>
       </c>
       <c r="G316" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="H316" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14112,10 +14064,10 @@
         <v>1377</v>
       </c>
       <c r="G317" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="H317" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14138,10 +14090,10 @@
         <v>1342</v>
       </c>
       <c r="G318" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="H318" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14160,8 +14112,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14184,10 +14142,10 @@
         <v>1419</v>
       </c>
       <c r="G320" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="H320" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14207,13 +14165,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1370</v>
+        <v>1445</v>
       </c>
       <c r="G321" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="H321" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14236,10 +14194,10 @@
         <v>1362</v>
       </c>
       <c r="G322" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="H322" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14262,10 +14220,10 @@
         <v>1368</v>
       </c>
       <c r="G323" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="H323" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14285,13 +14243,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G324" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="H324" t="s">
-        <v>1813</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14317,7 +14275,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14343,7 +14301,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14363,13 +14321,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G327" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="H327" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14392,10 +14350,10 @@
         <v>1362</v>
       </c>
       <c r="G328" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="H328" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14415,13 +14373,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G329" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="H329" t="s">
-        <v>1828</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14444,10 +14402,10 @@
         <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="H330" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14467,13 +14425,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G331" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="H331" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14496,10 +14454,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H332" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14522,10 +14480,10 @@
         <v>1372</v>
       </c>
       <c r="G333" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="H333" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14548,10 +14506,10 @@
         <v>1278</v>
       </c>
       <c r="G334" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="H334" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14574,10 +14532,10 @@
         <v>1358</v>
       </c>
       <c r="G335" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="H335" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14597,13 +14555,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G336" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="H336" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14626,10 +14584,10 @@
         <v>1373</v>
       </c>
       <c r="G337" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="H337" t="s">
-        <v>1813</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14649,13 +14607,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G338" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="H338" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14675,13 +14633,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G339" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="H339" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14704,10 +14662,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="H340" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14727,13 +14685,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G341" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="H341" t="s">
-        <v>1829</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14753,13 +14711,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G342" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H342" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14779,13 +14737,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G343" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="H343" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14805,13 +14763,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G344" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="H344" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14831,13 +14789,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G345" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H345" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14857,13 +14815,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G346" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="H346" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14886,10 +14844,10 @@
         <v>1340</v>
       </c>
       <c r="G347" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="H347" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14915,7 +14873,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14941,7 +14899,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14961,13 +14919,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G350" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H350" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14987,13 +14945,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G351" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="H351" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15013,13 +14971,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G352" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="H352" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15045,7 +15003,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15065,13 +15023,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1424</v>
+        <v>1276</v>
       </c>
       <c r="G354" t="s">
-        <v>1730</v>
+        <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15094,10 +15052,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="H355" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15123,7 +15081,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15143,13 +15101,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G357" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
       <c r="H357" t="s">
-        <v>1830</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15169,13 +15127,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G358" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H358" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15198,10 +15156,10 @@
         <v>1278</v>
       </c>
       <c r="G359" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="H359" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15227,7 +15185,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15247,13 +15205,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1398</v>
+        <v>1353</v>
       </c>
       <c r="G361" t="s">
-        <v>1732</v>
+        <v>1538</v>
       </c>
       <c r="H361" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15276,10 +15234,10 @@
         <v>1285</v>
       </c>
       <c r="G362" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="H362" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15299,13 +15257,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G363" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="H363" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15325,13 +15283,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G364" t="s">
-        <v>1734</v>
+        <v>1722</v>
       </c>
       <c r="H364" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15354,10 +15312,10 @@
         <v>1358</v>
       </c>
       <c r="G365" t="s">
-        <v>1735</v>
+        <v>1723</v>
       </c>
       <c r="H365" t="s">
-        <v>1831</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15380,10 +15338,10 @@
         <v>1370</v>
       </c>
       <c r="G366" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="H366" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15406,10 +15364,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="H367" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15429,13 +15387,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G368" t="s">
-        <v>1736</v>
+        <v>1724</v>
       </c>
       <c r="H368" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15458,10 +15416,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="H369" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15480,14 +15438,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1592</v>
-      </c>
       <c r="H370" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15507,13 +15459,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G371" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="H371" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15536,10 +15488,10 @@
         <v>1380</v>
       </c>
       <c r="G372" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="H372" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15559,13 +15511,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1458</v>
+        <v>1404</v>
       </c>
       <c r="G373" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="H373" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15585,7 +15537,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15611,7 +15563,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15631,13 +15583,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="G376" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="H376" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15657,13 +15609,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G377" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
       <c r="H377" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15683,13 +15635,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1371</v>
+        <v>1441</v>
       </c>
       <c r="G378" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="H378" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15709,13 +15661,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G379" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="H379" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15738,10 +15690,10 @@
         <v>1370</v>
       </c>
       <c r="G380" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="H380" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15764,10 +15716,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="H381" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15787,13 +15739,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="G382" t="s">
-        <v>1745</v>
+        <v>1733</v>
       </c>
       <c r="H382" t="s">
-        <v>1832</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15813,13 +15765,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G383" t="s">
-        <v>1746</v>
+        <v>1734</v>
       </c>
       <c r="H383" t="s">
-        <v>1823</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15839,13 +15791,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="G384" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="H384" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15865,13 +15817,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G385" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="H385" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15891,13 +15843,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="G386" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="H386" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15917,13 +15869,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G387" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="H387" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15946,10 +15898,10 @@
         <v>1370</v>
       </c>
       <c r="G388" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="H388" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15972,10 +15924,10 @@
         <v>1370</v>
       </c>
       <c r="G389" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="H389" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15998,10 +15950,10 @@
         <v>1382</v>
       </c>
       <c r="G390" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="H390" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16024,10 +15976,10 @@
         <v>1342</v>
       </c>
       <c r="G391" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="H391" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16050,10 +16002,10 @@
         <v>1370</v>
       </c>
       <c r="G392" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="H392" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16073,13 +16025,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="G393" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="H393" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16102,10 +16054,10 @@
         <v>1419</v>
       </c>
       <c r="G394" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="H394" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16125,13 +16077,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="G395" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="H395" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16151,13 +16103,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G396" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
       <c r="H396" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16177,13 +16129,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="G397" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="H397" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16209,7 +16161,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16229,13 +16181,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="G399" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="H399" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16255,13 +16207,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G400" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="H400" t="s">
-        <v>1833</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16287,7 +16239,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16307,13 +16259,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G402" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="H402" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16336,10 +16288,10 @@
         <v>1373</v>
       </c>
       <c r="G403" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
       <c r="H403" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16359,13 +16311,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G404" t="s">
-        <v>1762</v>
+        <v>1750</v>
       </c>
       <c r="H404" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16388,10 +16340,10 @@
         <v>1407</v>
       </c>
       <c r="G405" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
       <c r="H405" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16417,7 +16369,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16437,13 +16389,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="G407" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="H407" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16466,10 +16418,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="H408" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16495,7 +16447,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16521,7 +16473,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16541,13 +16493,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="G411" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
       <c r="H411" t="s">
-        <v>1820</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16570,10 +16522,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="H412" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16593,13 +16545,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G413" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="H413" t="s">
-        <v>1819</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16619,13 +16571,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G414" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="H414" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16648,10 +16600,10 @@
         <v>1390</v>
       </c>
       <c r="G415" t="s">
-        <v>1767</v>
+        <v>1755</v>
       </c>
       <c r="H415" t="s">
-        <v>1834</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16671,13 +16623,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="G416" t="s">
-        <v>1768</v>
+        <v>1756</v>
       </c>
       <c r="H416" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16700,10 +16652,10 @@
         <v>1294</v>
       </c>
       <c r="G417" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H417" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16726,10 +16678,10 @@
         <v>1338</v>
       </c>
       <c r="G418" t="s">
-        <v>1769</v>
+        <v>1757</v>
       </c>
       <c r="H418" t="s">
-        <v>1821</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16749,13 +16701,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G419" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="H419" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16778,10 +16730,10 @@
         <v>1338</v>
       </c>
       <c r="G420" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
       <c r="H420" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16801,13 +16753,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G421" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
       <c r="H421" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16827,13 +16779,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G422" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="H422" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16859,7 +16811,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16885,7 +16837,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16905,13 +16857,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G425" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
       <c r="H425" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16931,13 +16883,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="G426" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
       <c r="H426" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16956,14 +16908,11 @@
       <c r="E427" t="s">
         <v>1285</v>
       </c>
-      <c r="F427" t="s">
-        <v>1473</v>
-      </c>
       <c r="G427" t="s">
-        <v>1774</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16986,10 +16935,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="H428" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17012,10 +16961,10 @@
         <v>1276</v>
       </c>
       <c r="G429" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H429" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17035,13 +16984,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G430" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="H430" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17064,10 +17013,10 @@
         <v>1370</v>
       </c>
       <c r="G431" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="H431" t="s">
-        <v>1835</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17093,7 +17042,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17113,13 +17062,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="G433" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
       <c r="H433" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17142,10 +17091,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="H434" t="s">
-        <v>1831</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17165,13 +17114,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G435" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
       <c r="H435" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17194,10 +17143,10 @@
         <v>1340</v>
       </c>
       <c r="G436" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
       <c r="H436" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17217,13 +17166,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1781</v>
+        <v>1484</v>
       </c>
       <c r="H437" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17249,7 +17198,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17269,13 +17218,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G439" t="s">
-        <v>1782</v>
+        <v>1768</v>
       </c>
       <c r="H439" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17298,10 +17247,10 @@
         <v>1358</v>
       </c>
       <c r="G440" t="s">
-        <v>1783</v>
+        <v>1769</v>
       </c>
       <c r="H440" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17321,13 +17270,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="G441" t="s">
-        <v>1784</v>
+        <v>1770</v>
       </c>
       <c r="H441" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17350,10 +17299,10 @@
         <v>1359</v>
       </c>
       <c r="G442" t="s">
-        <v>1785</v>
+        <v>1771</v>
       </c>
       <c r="H442" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17373,13 +17322,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="G443" t="s">
-        <v>1786</v>
+        <v>1772</v>
       </c>
       <c r="H443" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17399,13 +17348,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G444" t="s">
-        <v>1787</v>
+        <v>1773</v>
       </c>
       <c r="H444" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17425,13 +17374,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="G445" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
       <c r="H445" t="s">
-        <v>1836</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17451,13 +17400,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1479</v>
+        <v>1398</v>
       </c>
       <c r="G446" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
       <c r="H446" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17480,10 +17429,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
       <c r="H447" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17506,10 +17455,10 @@
         <v>1407</v>
       </c>
       <c r="G448" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
       <c r="H448" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17532,10 +17481,10 @@
         <v>1398</v>
       </c>
       <c r="G449" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
       <c r="H449" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17558,10 +17507,10 @@
         <v>1339</v>
       </c>
       <c r="G450" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H450" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17581,13 +17530,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G451" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
       <c r="H451" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17607,13 +17556,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="G452" t="s">
-        <v>1794</v>
+        <v>1780</v>
       </c>
       <c r="H452" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17633,13 +17582,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="G453" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
       <c r="H453" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17659,13 +17608,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="G454" t="s">
-        <v>1796</v>
+        <v>1782</v>
       </c>
       <c r="H454" t="s">
-        <v>1823</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17685,13 +17634,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="G455" t="s">
-        <v>1797</v>
+        <v>1783</v>
       </c>
       <c r="H455" t="s">
-        <v>1828</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17711,13 +17660,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="G456" t="s">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="H456" t="s">
-        <v>1826</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17737,13 +17686,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G457" t="s">
-        <v>1799</v>
+        <v>1785</v>
       </c>
       <c r="H457" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17769,7 +17718,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1837</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17792,10 +17741,10 @@
         <v>1358</v>
       </c>
       <c r="G459" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
       <c r="H459" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17818,10 +17767,10 @@
         <v>1340</v>
       </c>
       <c r="G460" t="s">
-        <v>1801</v>
+        <v>1787</v>
       </c>
       <c r="H460" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17844,10 +17793,10 @@
         <v>1419</v>
       </c>
       <c r="G461" t="s">
-        <v>1802</v>
+        <v>1788</v>
       </c>
       <c r="H461" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17873,7 +17822,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17896,10 +17845,10 @@
         <v>1390</v>
       </c>
       <c r="G463" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="H463" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda2vec-partial-ner-w2v-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-w2v-money.xlsx
@@ -4525,7 +4525,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6!-</t>
+    <t>food|fresh|$6</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4612,7 +4612,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4681,7 +4681,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00!-</t>
+    <t>overpriced|price|$8.00</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4813,7 +4813,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18!-</t>
+    <t>menu|food|$18</t>
   </si>
   <si>
     <t>service|food|great|price</t>
@@ -4822,7 +4822,7 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>dish|reasonable|price|$3-6!-</t>
+    <t>dish|reasonable|price|$3-6</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4894,7 +4894,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70!-|$30!-</t>
+    <t>wine|$70|$30</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -4996,7 +4996,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|$7!-</t>
+    <t>like|$7</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -5017,7 +5017,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24!-</t>
+    <t>good|though|price|$24</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -5026,7 +5026,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10!-</t>
+    <t>great|$10</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -5107,7 +5107,7 @@
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great|100 dollar!-</t>
+    <t>like|great|100 dollar</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5119,13 +5119,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|$*!-</t>
+    <t>wait|staff|$*</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50!-</t>
+    <t>great|great|$8.50</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5227,10 +5227,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5239,7 +5239,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60!-</t>
+    <t>good|though|meal|$60</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5260,19 +5260,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00!-</t>
+    <t>dinner|$400.00</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11!-</t>
+    <t>plate|guacamole|$11</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5299,10 +5299,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10!-</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500!-</t>
+    <t>service|dish|price|$10</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5317,13 +5317,13 @@
     <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|dinner|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|dinner|$55</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5338,10 +5338,10 @@
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25!-</t>
-  </si>
-  <si>
-    <t>place|food|$!-</t>
+    <t>place|would|feel|restaurant|price|$25</t>
+  </si>
+  <si>
+    <t>place|food|$</t>
   </si>
   <si>
     <t>worth</t>
@@ -5350,19 +5350,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29!-</t>
+    <t>menu|$29</t>
   </si>
   <si>
     <t>good|reasonable|great|price</t>
   </si>
   <si>
-    <t>service|rude|well|$500!-</t>
+    <t>service|rude|well|$500</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5371,13 +5371,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24!-</t>
+    <t>never|restaurant|$24</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>place|price</t>
